--- a/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 2.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Паспорта/Бутылки/Водочные/1. XXI-В-28-2-350-1 (Калина 0,35 л.) Часть 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Паспорта\Бутылки\Водочные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8610B75D-DDD6-4001-9539-450CDE0244B5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFBD07B-979C-4AD8-9D73-880C979E3E7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>№Поз</t>
   </si>
@@ -654,7 +654,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -913,30 +913,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1278,16 +1281,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
@@ -1301,45 +1304,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
-      <c r="L2" s="100"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="105" t="s">
+      <c r="A3" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="25"/>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
@@ -1911,7 +1914,7 @@
         <v>1750795</v>
       </c>
       <c r="G24" s="65">
-        <f t="shared" ref="G24:G30" si="7">F24/A$21</f>
+        <f t="shared" ref="G24:G31" si="7">F24/A$21</f>
         <v>0.10421398809523809</v>
       </c>
       <c r="H24" s="67">
@@ -2138,230 +2141,263 @@
       <c r="K30" s="53"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="15"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="1"/>
+      <c r="B31" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="90">
+        <v>44357</v>
+      </c>
+      <c r="D31" s="90">
+        <v>44378</v>
+      </c>
+      <c r="E31" s="95">
+        <v>2152913</v>
+      </c>
+      <c r="F31" s="96">
+        <v>2193539</v>
+      </c>
+      <c r="G31" s="91">
+        <f t="shared" si="7"/>
+        <v>0.13056779761904763</v>
+      </c>
+      <c r="H31" s="67">
+        <f t="shared" ref="H31" si="22">H30-F31</f>
+        <v>-1309510</v>
+      </c>
+      <c r="I31" s="22">
+        <f t="shared" ref="I31" si="23">I30-G31</f>
+        <v>-7.7947023809523786E-2</v>
+      </c>
+      <c r="J31" s="70">
+        <v>253</v>
+      </c>
+      <c r="K31" s="53"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="91"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+    </row>
+    <row r="35" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="74">
-        <f>SUM(E21:E31)</f>
-        <v>15466990</v>
-      </c>
-      <c r="F32" s="75">
-        <f>SUM(F21:F31)</f>
-        <v>15915971</v>
-      </c>
-      <c r="G32" s="21">
-        <f>SUM(G21:G31)</f>
-        <v>0.94737922619047621</v>
-      </c>
-      <c r="H32" s="19">
-        <f>A21-F32</f>
-        <v>884029</v>
-      </c>
-      <c r="I32" s="24">
-        <f>1-G32</f>
-        <v>5.2620773809523791E-2</v>
-      </c>
-      <c r="J32" s="71"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J33" s="73"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="J34" s="72"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="72"/>
-    </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="101" t="s">
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="74">
+        <f>SUM(E21:E34)</f>
+        <v>17619903</v>
+      </c>
+      <c r="F35" s="75">
+        <f>SUM(F21:F34)</f>
+        <v>18109510</v>
+      </c>
+      <c r="G35" s="21">
+        <f>SUM(G21:G34)</f>
+        <v>1.0779470238095239</v>
+      </c>
+      <c r="H35" s="19">
+        <f>A21-F35</f>
+        <v>-1309510</v>
+      </c>
+      <c r="I35" s="24">
+        <f>1-G35</f>
+        <v>-7.7947023809523897E-2</v>
+      </c>
+      <c r="J35" s="71"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J36" s="73"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J37" s="72"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="72"/>
+    </row>
+    <row r="39" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="72"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="110" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="108">
-        <f>A21-F32</f>
-        <v>884029</v>
-      </c>
-      <c r="B38" s="109"/>
-      <c r="C38" s="57">
-        <f>1-G32</f>
-        <v>5.2620773809523791E-2</v>
-      </c>
-      <c r="D38" s="20">
-        <f>(C38/0.8)*100</f>
-        <v>6.5775967261904738</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="107"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="107"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="72"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="104"/>
+      <c r="C40" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="102">
+        <f>A21-F35</f>
+        <v>-1309510</v>
+      </c>
+      <c r="B41" s="103"/>
+      <c r="C41" s="57">
+        <f>1-G35</f>
+        <v>-7.7947023809523897E-2</v>
+      </c>
+      <c r="D41" s="20">
+        <f>(C41/0.8)*100</f>
+        <v>-9.7433779761904873</v>
+      </c>
+      <c r="E41" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="43"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="43"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="43"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="42"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="43"/>
       <c r="G46" s="44"/>
       <c r="H46" s="43"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="42"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
       <c r="F47" s="43"/>
       <c r="G47" s="44"/>
       <c r="H47" s="43"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="42"/>
       <c r="B48" s="43"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="45"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="42"/>
@@ -2377,8 +2413,8 @@
       <c r="A50" s="42"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
-      <c r="E50" s="43"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="43"/>
       <c r="G50" s="44"/>
       <c r="H50" s="43"/>
@@ -2386,105 +2422,135 @@
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="42"/>
       <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="43"/>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="43"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="41"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="107"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="42"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="44"/>
+      <c r="F54" s="43"/>
       <c r="G54" s="44"/>
       <c r="H54" s="43"/>
-      <c r="I54" s="102"/>
-      <c r="J54" s="102"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="42"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="45"/>
-      <c r="F55" s="45"/>
-      <c r="G55" s="45"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="102"/>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="108"/>
+      <c r="C55" s="108"/>
+      <c r="D55" s="109"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="106"/>
-      <c r="C61" s="107"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="106"/>
-      <c r="C68" s="107"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="100"/>
+      <c r="C64" s="101"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71" s="100"/>
+      <c r="C71" s="101"/>
     </row>
   </sheetData>
   <sortState ref="B10:B17">
     <sortCondition ref="B10"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
     <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A2:L2"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="84" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="38" max="12" man="1"/>
+    <brk id="41" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
